--- a/May lam gia/May_lam_giá.xlsx
+++ b/May lam gia/May_lam_giá.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>Thu Hương Thép</t>
+  </si>
+  <si>
+    <t>Cô Phượng Mỹ từ thiện</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>Uyên CEO3</t>
+  </si>
+  <si>
+    <t>Helen Nguyễn CEO3</t>
   </si>
 </sst>
 </file>
@@ -463,6 +475,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -471,14 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,334 +846,334 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="19">
         <v>43015</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
         <v>6</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>937922989</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>43015</v>
       </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
         <v>450000</v>
       </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <v>7</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>450000</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>7</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>42773</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
         <v>450000</v>
       </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21" t="s">
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
         <v>450000</v>
       </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="F10" s="19"/>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
         <v>450000</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="21" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="19"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="21" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
@@ -1208,30 +1220,30 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="F16" s="19"/>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
         <v>430000</v>
       </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21" t="s">
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
@@ -1254,26 +1266,26 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="19">
+      <c r="F18" s="19"/>
+      <c r="G18" s="16">
         <v>2</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
         <v>2</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
@@ -1314,43 +1326,99 @@
     <row r="21" spans="1:12">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4">
         <v>11</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="F22" s="8" t="s">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="F25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="9">
-        <f>SUM(G2:G21)</f>
-        <v>42</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G25" s="9">
+        <f>SUM(G2:G24)</f>
+        <v>46</v>
+      </c>
+      <c r="H25" s="9">
         <f>SUM(H2:H16)</f>
         <v>2680000</v>
       </c>
-      <c r="I22" s="9">
-        <f>SUM(I2:I21)</f>
+      <c r="I25" s="9">
+        <f>SUM(I2:I24)</f>
         <v>27</v>
       </c>
     </row>
@@ -1363,7 +1431,7 @@
     <hyperlink ref="K8" r:id="rId5"/>
     <hyperlink ref="K9" r:id="rId6"/>
     <hyperlink ref="K11" r:id="rId7"/>
-    <hyperlink ref="K21" r:id="rId8"/>
+    <hyperlink ref="K24" r:id="rId8"/>
     <hyperlink ref="K10" r:id="rId9"/>
     <hyperlink ref="K12" r:id="rId10"/>
     <hyperlink ref="K3" r:id="rId11"/>
@@ -1438,7 +1506,7 @@
         <f t="shared" ref="E4:E10" si="0">($C$14/60)*D4</f>
         <v>250</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="20">
         <v>10000</v>
       </c>
     </row>
@@ -1455,7 +1523,7 @@
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
@@ -1470,7 +1538,7 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>

--- a/May lam gia/May_lam_giá.xlsx
+++ b/May lam gia/May_lam_giá.xlsx
@@ -21,7 +21,34 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+8 lỗ, 1 lỗ 1 phút = 8 phút
+Đục nắp 1.5 phút/ 5 cái-&gt; 0.3 phút
+Bỏ bazo: 2 phút
+Tổng cộng: 12phut1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -207,9 +234,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Chiị dâu Cường hàng xóm</t>
-  </si>
-  <si>
     <t>Công đoạn level 0</t>
   </si>
   <si>
@@ -222,9 +246,6 @@
     <t>Làm thùng đá</t>
   </si>
   <si>
-    <t>Làm các thau và dĩa</t>
-  </si>
-  <si>
     <t>Làm máy bơm</t>
   </si>
   <si>
@@ -288,23 +309,53 @@
     <t>Thu Hương Thép</t>
   </si>
   <si>
-    <t>Cô Phượng Mỹ từ thiện</t>
-  </si>
-  <si>
-    <t>Mỹ</t>
-  </si>
-  <si>
     <t>Uyên CEO3</t>
   </si>
   <si>
     <t>Helen Nguyễn CEO3</t>
+  </si>
+  <si>
+    <t>Đục lỗ nắp</t>
+  </si>
+  <si>
+    <t>Chị dâu Cường hàng xóm</t>
+  </si>
+  <si>
+    <t>Làm các thau</t>
+  </si>
+  <si>
+    <t>Laàm các đĩa</t>
+  </si>
+  <si>
+    <t>Tổng chi phí</t>
+  </si>
+  <si>
+    <t>Công đoạn level 21</t>
+  </si>
+  <si>
+    <t>Thân thùng đá</t>
+  </si>
+  <si>
+    <t>Nắp thùng đá</t>
+  </si>
+  <si>
+    <t>Khuong GCS</t>
+  </si>
+  <si>
+    <t>Manh</t>
+  </si>
+  <si>
+    <t>Vinh Dang khuôn nhựa</t>
+  </si>
+  <si>
+    <t>Phuong A4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +393,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -369,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -419,17 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -446,7 +499,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -474,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -483,10 +533,10 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -787,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,346 +896,346 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>43015</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="16">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>937922989</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>43015</v>
       </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
         <v>450000</v>
       </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>7</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>450000</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>7</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>42773</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18" t="s">
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
         <v>450000</v>
       </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
         <v>450000</v>
       </c>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="F10" s="18"/>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
         <v>450000</v>
       </c>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="18" t="s">
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="18" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="18" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="18" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4">
         <v>1</v>
       </c>
@@ -1202,12 +1252,12 @@
       <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4">
         <v>1</v>
       </c>
@@ -1220,42 +1270,42 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="F16" s="18"/>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
         <v>430000</v>
       </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="18" t="s">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
@@ -1266,36 +1316,36 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="16">
+      <c r="F18" s="18"/>
+      <c r="G18" s="15">
         <v>2</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
         <v>2</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4">
         <v>1</v>
       </c>
@@ -1306,70 +1356,80 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15">
+        <v>2</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="4">
         <v>1</v>
       </c>
@@ -1380,46 +1440,110 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="4">
+      <c r="F27" s="18"/>
+      <c r="G27" s="15">
         <v>11</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15">
+        <v>11</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="F25" s="8" t="s">
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="9">
-        <f>SUM(G2:G24)</f>
-        <v>46</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="G28" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>50</v>
+      </c>
+      <c r="H28" s="8">
         <f>SUM(H2:H16)</f>
         <v>2680000</v>
       </c>
-      <c r="I25" s="9">
-        <f>SUM(I2:I24)</f>
-        <v>27</v>
+      <c r="I28" s="8">
+        <f>SUM(I2:I27)</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1555,7 @@
     <hyperlink ref="K8" r:id="rId5"/>
     <hyperlink ref="K9" r:id="rId6"/>
     <hyperlink ref="K11" r:id="rId7"/>
-    <hyperlink ref="K24" r:id="rId8"/>
+    <hyperlink ref="K27" r:id="rId8"/>
     <hyperlink ref="K10" r:id="rId9"/>
     <hyperlink ref="K12" r:id="rId10"/>
     <hyperlink ref="K3" r:id="rId11"/>
@@ -1447,191 +1571,310 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E10" si="0">($C$14/60)*D4</f>
-        <v>250</v>
-      </c>
-      <c r="F4" s="20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F12" si="0">($D$16/60)*E4</f>
+        <v>500</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>F4*G4</f>
+        <v>500</v>
+      </c>
+      <c r="I4" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="11">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5:H12" si="1">F5*G5</f>
+        <v>250</v>
+      </c>
+      <c r="I5" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>30</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
         <v>1000</v>
       </c>
-      <c r="F7" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="F9" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="9">
-        <f>SUM(E3:E10)</f>
-        <v>15500</v>
-      </c>
-      <c r="F11" s="9">
-        <f>SUM(F3:F10)</f>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14">
+      <c r="F13" s="8">
+        <f>SUM(F3:F12)</f>
+        <v>14250</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H3:H12)</f>
+        <v>3250</v>
+      </c>
+      <c r="I13" s="8">
+        <f>SUM(I3:I12)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
         <v>15000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1644,7 +1887,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,14 +1897,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>58</v>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1669,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <v>125000</v>
@@ -1680,9 +1923,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11">
         <v>135000</v>
       </c>
     </row>
@@ -1691,9 +1934,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11">
         <v>43000</v>
       </c>
     </row>
@@ -1702,9 +1945,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11">
         <v>22000</v>
       </c>
     </row>
@@ -1712,10 +1955,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11">
         <v>4000</v>
       </c>
     </row>
@@ -1723,10 +1966,10 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1734,10 +1977,10 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1745,10 +1988,10 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -1756,25 +1999,25 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="12">
-        <f>'Công đoạn'!F11</f>
-        <v>16500</v>
+      <c r="B11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11">
+        <f>'Công đoạn'!I13</f>
+        <v>17000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f>SUM(C3:C11)</f>
-        <v>349500</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
